--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppe" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t xml:space="preserve">GruppenID</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">T4_Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t xml:space="preserve">Test1</t>
   </si>
   <si>
     <t xml:space="preserve">Test Name1</t>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t xml:space="preserve">Test Name4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Name5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Name6</t>
   </si>
   <si>
     <t xml:space="preserve">T1_V1</t>
@@ -209,10 +221,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -239,7 +251,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -255,6 +267,46 @@
       </c>
       <c r="F2" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -273,9 +325,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -286,45 +338,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>10</v>
@@ -361,6 +413,88 @@
       </c>
       <c r="M2" s="0" t="n">
         <v>120</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -392,12 +526,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>25</v>
@@ -405,7 +539,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>20</v>
@@ -413,7 +547,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>15</v>
@@ -435,10 +569,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,16 +582,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -476,10 +661,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -489,7 +674,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>
@@ -508,10 +717,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,7 +730,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>25.2</v>
       </c>
     </row>
   </sheetData>

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppe" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="PktHolzscheitelwurf" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="PktReifenwuchten" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="PktBulldogziehen" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Bierkruglauf" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t xml:space="preserve">GruppenID</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t xml:space="preserve">Zeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StrafPkt</t>
   </si>
 </sst>
 </file>
@@ -199,8 +206,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,82 +241,82 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -334,166 +345,166 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>100</v>
       </c>
     </row>
@@ -522,34 +533,34 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>15</v>
       </c>
     </row>
@@ -578,70 +589,70 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>21</v>
       </c>
     </row>
@@ -663,41 +674,41 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>10.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>11.2</v>
       </c>
     </row>
@@ -726,34 +737,34 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>25.2</v>
       </c>
     </row>
@@ -766,4 +777,84 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3780</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -14,7 +14,7 @@
     <sheet name="PktHolzscheitelwurf" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="PktReifenwuchten" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="PktBulldogziehen" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Bierkruglauf" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="PktBierkruglauf" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppe" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="PktBulldogziehen" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="PktBierkruglauf" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">T4_V3</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoehe</t>
+    <t xml:space="preserve">Anzahl</t>
   </si>
   <si>
     <t xml:space="preserve">T1</t>
@@ -526,8 +526,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -786,65 +786,65 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>3780</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>120</v>
       </c>
     </row>

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppe" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="PktBulldogziehen" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="PktBierkruglauf" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t xml:space="preserve">GruppenID</t>
   </si>
@@ -127,10 +127,7 @@
     <t xml:space="preserve">Zeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Pkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StrafPkt</t>
+    <t xml:space="preserve">Gesamt</t>
   </si>
 </sst>
 </file>
@@ -526,7 +523,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -786,8 +783,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -799,12 +796,8 @@
       <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -813,12 +806,8 @@
       <c r="B2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>120</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -827,12 +816,8 @@
       <c r="B3" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>100</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -841,12 +826,8 @@
       <c r="B4" s="1" t="n">
         <v>3780</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>120</v>
-      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppe" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="PktBulldogziehen" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="PktBierkruglauf" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -335,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -461,7 +461,7 @@
         <v>100</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -783,7 +783,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppe" sheetId="1" state="visible" r:id="rId2"/>
@@ -335,7 +335,7 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -523,8 +523,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -558,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppe" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t xml:space="preserve">GruppenID</t>
   </si>
@@ -44,33 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">T4_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Name1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Name2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Name3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Name4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Name5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Name6</t>
   </si>
   <si>
     <t xml:space="preserve">T1_V1</t>
@@ -229,10 +202,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -261,60 +234,265 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -333,10 +511,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,163 +524,326 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>120</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>130</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="n">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="n">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="n">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F4" s="1" t="n">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>50</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -521,10 +862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,31 +875,260 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>25</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>25</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -577,10 +1147,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,67 +1160,278 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>13</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>17</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="n">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="n">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="n">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -669,10 +1450,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,31 +1463,260 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>10</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>10.5</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>11.2</v>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -725,10 +1735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,31 +1748,260 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>20</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>23</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>25.2</v>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +2020,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -794,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -803,9 +2042,7 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>10000</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -813,9 +2050,7 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>5000</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -823,11 +2058,244 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>3780</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t xml:space="preserve">GruppenID</t>
   </si>
@@ -44,6 +44,66 @@
   </si>
   <si>
     <t xml:space="preserve">T4_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVO TEAM Jugend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hecht Julian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hecht Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hecht Sophia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graßl Tobias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turnen 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maier Sandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straßburger Karsten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuiber Marina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hech Renate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turnen 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuiber Alina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuiber Pia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuiber Thea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straßburger Luisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB 03 Roding – Abt. Bierheben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes Janker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishal Saini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes Kellermeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas Simeth</t>
   </si>
   <si>
     <t xml:space="preserve">T1_V1</t>
@@ -204,11 +264,14 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -269,6 +332,21 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -314,11 +392,41 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -443,6 +551,21 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,8 +636,8 @@
   </sheetPr>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,40 +647,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -620,6 +743,42 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -665,11 +824,83 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -794,6 +1025,42 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,8 +1131,8 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -875,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -905,6 +1172,9 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -950,11 +1220,17 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1079,6 +1355,9 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,8 +1428,8 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1160,16 +1439,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1208,6 +1487,18 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1253,11 +1544,35 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1382,6 +1697,18 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>10.65</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,8 +1779,8 @@
   </sheetPr>
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1463,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1493,6 +1820,9 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>39.13</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1538,11 +1868,17 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>49.63</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>49.66</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1667,6 +2003,9 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>52.47</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,7 +2077,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1748,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1778,6 +2117,9 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>20.28</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1823,11 +2165,17 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>24.34</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>24.43</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1952,6 +2300,9 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>19.84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,8 +2373,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2033,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2071,6 +2422,9 @@
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>30.95</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -2116,11 +2470,17 @@
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="0" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="0" t="n">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -2245,6 +2605,9 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="178">
   <si>
     <t xml:space="preserve">GruppenID</t>
   </si>
@@ -61,6 +61,96 @@
     <t xml:space="preserve">Graßl Tobias</t>
   </si>
   <si>
+    <t xml:space="preserve">Die Schönen und das Biest &lt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beni Nicklas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia Kellermeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evi Graml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Foierl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watzmänner + Gerhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwarzfischer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. Groitl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erwin Schollerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerhard Böhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allstars Brangerwara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregor Nowara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Nowara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Brandhuber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Angermeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big City Girls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathalie Rettenberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilly Brando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skye Tappeiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Müller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-Town 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Becher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Schmaderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Holzner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia Senft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Gurgaln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Ederer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bettina Fuchs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Krüger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamara Aumer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turnen 3</t>
   </si>
   <si>
@@ -91,6 +181,285 @@
     <t xml:space="preserve">Straßburger Luisa</t>
   </si>
   <si>
+    <t xml:space="preserve">TB Turnen 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fischer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stangl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleixner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariane Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Turnen 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuela Künstler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Prasch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bettina Konadl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fam. Lenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rober Lenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lea Lenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Lenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Lenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heberyoungsters Team 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simon Klapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Meingast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Baier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas Lorenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Mannschaft → die Starken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marina Nowara-Bauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia Bauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolf Fischer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three and a half Men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Graz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerhard Sturde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferdinand Prösl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus Graz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB Tennis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximilian Riedl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinhard Kerscher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steffi Pohl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia Breu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVO TEAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jürgen Graßl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johannes Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quirin Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadtrat Roding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepp Pfeffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straßburger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lehner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-Town 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Böhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebi Dirscherl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Groitl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Schwarzfischer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBA Offene Behindertenarbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamara Lager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petra Bognitschar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabine Fleischmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastian Vogl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanclub Gewichtheben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigi Schambeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Pusl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marianne Pusl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabian Pusl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masskrug 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstantin H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikita T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Handball Gang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole Ruhland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah Brunner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie-Marie Scheitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelina Hartwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BV Mitterdorf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ludwig Faltermeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timo Pixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Weber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janis Vogl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSV Vaillant Roding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Schreiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berhnard Bock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mich Lobmeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Panzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lena Schwarzfischer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linda Gruber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simone Beinsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Höcherl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bost Besing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Bucher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bamsti Bauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johssan Ruhland??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Künstler??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moni &amp; die Heckflossen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Schuierer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monika Jellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christoph Kellermeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Meingast</t>
+  </si>
+  <si>
     <t xml:space="preserve">TB 03 Roding – Abt. Bierheben</t>
   </si>
   <si>
@@ -104,6 +473,36 @@
   </si>
   <si>
     <t xml:space="preserve">Lukas Simeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemütlichkeit Pösing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonas Richter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreas Meyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobias Höcherl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas Holzer Lukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fam. Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renate Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanie Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathi Hecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matze Hecht</t>
   </si>
   <si>
     <t xml:space="preserve">T1_V1</t>
@@ -194,12 +593,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,12 +641,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,10 +671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -357,55 +766,145 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,45 +912,120 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -462,26 +1036,101 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B27" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -492,6 +1141,21 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -502,11 +1166,41 @@
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -517,6 +1211,21 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B34" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -527,45 +1236,120 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B36" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B37" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B38" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B39" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B40" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,6 +1400,136 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -634,10 +1548,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,40 +1561,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -789,6 +1703,42 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -799,26 +1749,206 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -906,26 +2036,206 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -936,26 +2246,206 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -966,6 +2456,42 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -976,11 +2502,83 @@
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -991,6 +2589,42 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1001,26 +2635,206 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B36" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B37" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B38" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B40" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1111,6 +2925,178 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1129,10 +3115,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1142,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1185,6 +3171,9 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1195,26 +3184,41 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1236,26 +3240,41 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -1266,26 +3285,41 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1296,6 +3330,9 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -1306,11 +3343,17 @@
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1321,6 +3364,9 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1331,26 +3377,41 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B36" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B37" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B38" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B39" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B40" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1408,6 +3469,112 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1426,10 +3593,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1439,16 +3606,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1509,6 +3676,18 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1519,26 +3698,86 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>10.45</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1578,26 +3817,86 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -1608,26 +3907,86 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1638,6 +3997,18 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -1648,11 +4019,35 @@
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1663,6 +4058,18 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1673,26 +4080,86 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B36" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B37" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B38" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B39" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B40" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1759,6 +4226,130 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>14.4</v>
       </c>
     </row>
   </sheetData>
@@ -1777,10 +4368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1790,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1833,6 +4424,9 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>36.28</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1843,26 +4437,41 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>41.16</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>41.09</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>34.78</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>35.82</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>42.28</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -1884,26 +4493,41 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>53.59</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>51.06</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>40.97</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>36.94</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>43.28</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -1914,26 +4538,41 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>46.22</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>39.32</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>40.13</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>45.72</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>45.32</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1944,6 +4583,9 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>40.78</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -1954,11 +4596,17 @@
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>44.35</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>51.35</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1969,6 +4617,9 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>58.47</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1979,26 +4630,41 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B36" s="0" t="n">
+        <v>46.75</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B37" s="0" t="n">
+        <v>45.18</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B38" s="0" t="n">
+        <v>35.06</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B39" s="0" t="n">
+        <v>47.09</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B40" s="0" t="n">
+        <v>43.32</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -2056,6 +4722,112 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>39.66</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>41.37</v>
       </c>
     </row>
   </sheetData>
@@ -2074,10 +4846,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2087,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2130,6 +4902,9 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>20.84</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -2140,26 +4915,41 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>19.72</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>18.15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>19.16</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>25.78</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -2181,26 +4971,41 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>27.41</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>22.72</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>22.56</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>20.75</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>21.09</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -2211,26 +5016,41 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>20.31</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>20.78</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>19.68</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>20.97</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>18.44</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -2241,6 +5061,9 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>21.16</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -2251,11 +5074,17 @@
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>21.59</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>26.66</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -2266,6 +5095,9 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>25.44</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -2276,26 +5108,41 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B36" s="0" t="n">
+        <v>20.93</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B37" s="0" t="n">
+        <v>24.06</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B38" s="0" t="n">
+        <v>19.28</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B39" s="0" t="n">
+        <v>21.57</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B40" s="0" t="n">
+        <v>18.75</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -2353,6 +5200,112 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>21.97</v>
       </c>
     </row>
   </sheetData>
@@ -2371,10 +5324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2384,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2435,6 +5388,9 @@
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>35.59</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -2445,26 +5401,41 @@
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>38.68</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>30.08</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>29.71</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>26.21</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -2486,26 +5457,41 @@
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>23.87</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>28.68</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -2516,26 +5502,41 @@
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>31.25</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>27.79</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>35.29</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -2546,6 +5547,9 @@
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>30.3</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -2556,11 +5560,17 @@
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>27.56</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>25.79</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -2571,6 +5581,9 @@
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>26.03</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -2581,26 +5594,41 @@
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B36" s="0" t="n">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="B37" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="B38" s="0" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="B39" s="0" t="n">
+        <v>32.08</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="B40" s="0" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -2658,6 +5686,112 @@
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>50</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>27.27</v>
       </c>
     </row>
   </sheetData>

--- a/BavarianGames.xlsx
+++ b/BavarianGames.xlsx
@@ -575,7 +575,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -673,11 +672,11 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.57"/>
   </cols>
@@ -706,105 +705,180 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>11</v>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,19 +886,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,19 +906,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,39 +926,39 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
+      <c r="B14" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,19 +966,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,19 +986,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,19 +1006,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -952,19 +1026,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,19 +1046,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,64 +1066,79 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>70</v>
+      <c r="B21" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,19 +1146,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,19 +1166,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1097,19 +1186,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,69 +1206,99 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>99</v>
+      <c r="B29" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B30" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,350 +1306,137 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>118</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>123</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>128</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>133</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>138</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>143</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>148</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>54</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>55</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>56</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>57</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>58</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>59</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>61</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>62</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>64</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>65</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>66</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>67</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>153</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>158</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1551,12 +1457,12 @@
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,57 +1507,165 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="B3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -1661,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -1670,80 +1684,152 @@
         <v>80</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="H8" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -1753,37 +1839,37 @@
         <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>80</v>
       </c>
       <c r="J10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M10" s="0" t="n">
         <v>80</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,22 +1877,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -1815,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,25 +1918,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>40</v>
@@ -1859,13 +1945,13 @@
         <v>40</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,40 +1959,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="I13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M13" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,28 +2012,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G14" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,40 +2041,40 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,37 +2085,37 @@
         <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,40 +2123,40 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>40</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,40 +2164,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,40 +2205,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="I19" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>60</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>80</v>
@@ -2201,86 +2287,122 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="I21" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>10</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,40 +2410,40 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>40</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,40 +2451,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="E25" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>200</v>
-      </c>
       <c r="K25" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,37 +2495,37 @@
         <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>60</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K26" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" s="0" t="n">
         <v>60</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,37 +2533,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>0</v>
@@ -2451,92 +2573,164 @@
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>40</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,10 +2738,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>0</v>
@@ -2556,548 +2750,146 @@
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>60</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>40</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>100</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>60</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>54</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>55</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>56</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>57</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>58</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>59</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>61</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>62</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>64</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>65</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>66</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>67</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M69" s="0" t="n">
-        <v>40</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M71" s="0" t="n">
-        <v>10</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3115,15 +2907,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3135,57 +2927,72 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="0" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3008,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,7 +3024,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,7 +3032,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3056,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,7 +3064,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,7 +3072,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,20 +3080,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,7 +3112,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3120,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,33 +3128,39 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,228 +3168,6 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3595,13 +3189,13 @@
   </sheetPr>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3622,93 +3216,153 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10.45</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>11.9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6.4</v>
+        <v>10.9</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7.9</v>
+        <v>16.3</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>12.9</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10.6</v>
+        <v>6.8</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8.6</v>
+        <v>11.1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>12.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>10.6</v>
+        <v>6.5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>11.45</v>
+        <v>8.5</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>10.45</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,16 +3370,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>16.58</v>
+        <v>8.9</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>12.1</v>
+        <v>8.6</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10.1</v>
+        <v>6.1</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>14.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,16 +3387,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>10.9</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>16.3</v>
+        <v>10.5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,16 +3404,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>9.6</v>
+        <v>13.4</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>9.2</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,16 +3421,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>6.8</v>
+        <v>12.8</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>11.1</v>
+        <v>13.5</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,16 +3438,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>11.7</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>8.1</v>
+        <v>12.6</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>8</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,16 +3455,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10.8</v>
+        <v>14.3</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>6.5</v>
+        <v>8.9</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>8.5</v>
+        <v>12.1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>6.8</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,16 +3472,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>8.9</v>
+        <v>11.1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>6.8</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,16 +3489,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>8.6</v>
+        <v>9.2</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>10.5</v>
+        <v>11.6</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>13.5</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,16 +3506,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>11.2</v>
+        <v>9.2</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>12</v>
+        <v>11.1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>13.4</v>
+        <v>10.9</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>11.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,16 +3523,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="D20" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E20" s="0" t="n">
         <v>9.6</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,38 +3540,50 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>12.6</v>
+        <v>9.7</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>11.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>8.9</v>
+        <v>12.15</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>12.1</v>
+        <v>4.7</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>11.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,16 +3591,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>11.1</v>
+        <v>7.9</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>8.4</v>
+        <v>9.8</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>8.5</v>
+        <v>9.2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>9.3</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,16 +3608,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>9.2</v>
+        <v>9.7</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>11.5</v>
+        <v>9.7</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>8.7</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,16 +3625,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>9.2</v>
+        <v>11.2</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>11.1</v>
+        <v>7.4</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>5.8</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,44 +3642,68 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>12.4</v>
+        <v>9.5</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>13.2</v>
+        <v>10.35</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>9.9</v>
+        <v>12.3</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>9.6</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>11</v>
+        <v>10.3</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>8.6</v>
+        <v>10.2</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>9.7</v>
+        <v>10.7</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>9</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>10.65</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -4023,13 +3713,13 @@
         <v>8.6</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>9.6</v>
+        <v>11.9</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>6.5</v>
+        <v>11.3</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,320 +3727,134 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>15.5</v>
+        <v>8.1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>12.15</v>
+        <v>11.3</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>4.7</v>
+        <v>9.3</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>5</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>11.7</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>10.2</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>11.4</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>12.2</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>10.65</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>54</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>55</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>56</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>57</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>58</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>59</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>61</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>62</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>64</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>65</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>66</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>67</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="E71" s="0" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4370,13 +3874,13 @@
   </sheetPr>
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4388,57 +3892,72 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="0" t="n">
+        <v>39.13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="0" t="n">
+        <v>36.28</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="0" t="n">
+        <v>41.16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>41.09</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>39.13</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>35.82</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>36.28</v>
+        <v>42.28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>49.63</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>41.16</v>
+        <v>49.66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4446,7 +3965,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>41.09</v>
+        <v>53.59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +3973,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>34.78</v>
+        <v>51.06</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,7 +3981,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>35.82</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4470,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>42.28</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,7 +3997,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>49.63</v>
+        <v>43.28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,7 +4005,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>49.66</v>
+        <v>46.22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4494,7 +4013,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>53.59</v>
+        <v>39.32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4502,7 +4021,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>51.06</v>
+        <v>40.13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4510,7 +4029,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>40.97</v>
+        <v>45.72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4518,7 +4037,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>36.94</v>
+        <v>45.32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,20 +4045,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>43.28</v>
+        <v>40.78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>44.35</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>46.22</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,7 +4069,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>39.32</v>
+        <v>58.47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,7 +4077,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>40.13</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,7 +4085,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>45.72</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,33 +4093,39 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>45.32</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>47.09</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>40.78</v>
+        <v>43.32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>52.47</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>44.35</v>
+        <v>39.66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,230 +4133,125 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>51.35</v>
+        <v>41.37</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>58.47</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>46.75</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>45.18</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>35.06</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>47.09</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>43.32</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>52.47</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>54</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>55</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>56</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>57</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>58</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>59</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>61</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>62</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>64</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>65</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>66</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>67</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>39.66</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>41.37</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4848,13 +4271,13 @@
   </sheetPr>
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4866,57 +4289,72 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="0" t="n">
+        <v>20.28</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="0" t="n">
+        <v>20.84</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="0" t="n">
+        <v>19.72</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>18.15</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20.28</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>20.19</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20.84</v>
+        <v>25.78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>24.34</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>19.72</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,7 +4362,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>18.15</v>
+        <v>27.41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,7 +4370,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>19.16</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,7 +4378,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>20.19</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4948,7 +4386,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>25.78</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,7 +4394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>24.34</v>
+        <v>21.09</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>24.43</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4972,7 +4410,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>27.41</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4980,7 +4418,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>22.72</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,7 +4426,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>22.56</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,7 +4434,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>20.75</v>
+        <v>18.44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,20 +4442,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>21.09</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>21.59</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20.31</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5025,7 +4466,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>20.78</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5033,7 +4474,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>19.68</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5041,7 +4482,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20.97</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5049,33 +4490,39 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>18.44</v>
+        <v>19.28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>21.57</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>21.16</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>19.84</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>21.59</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,230 +4530,125 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>26.66</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>25.44</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>20.93</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>24.06</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>19.28</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>21.57</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>18.75</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>19.84</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>54</v>
-      </c>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>55</v>
-      </c>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>56</v>
-      </c>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>57</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>58</v>
-      </c>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>59</v>
-      </c>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>61</v>
-      </c>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>62</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
-      </c>
+      <c r="A64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>64</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>65</v>
-      </c>
+      <c r="A66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>66</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>67</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>19.41</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>21.97</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5324,10 +4666,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5346,7 +4688,9 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="0" t="n">
+        <v>30.95</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
@@ -5354,7 +4698,9 @@
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="0" t="n">
+        <v>35.59</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
@@ -5362,7 +4708,9 @@
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="0" t="n">
+        <v>38.68</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
@@ -5370,39 +4718,48 @@
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>30.95</v>
+        <v>30.08</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>29.71</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>35.59</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="0" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>38.68</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5410,7 +4767,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>37</v>
+        <v>23.87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,7 +4775,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>30.08</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5426,7 +4783,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>29.71</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5434,7 +4791,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>26.21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5442,7 +4799,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>25.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,7 +4807,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,7 +4815,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>23.87</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,7 +4823,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>28.68</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5474,7 +4831,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>30</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>28</v>
+        <v>35.29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,20 +4847,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>27</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="0" t="n">
+        <v>27.56</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>29</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,7 +4871,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>31.25</v>
+        <v>26.03</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5519,7 +4879,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>37.5</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,7 +4887,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>27.79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,33 +4895,39 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>35.29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>32.08</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30.3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>27.56</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5569,228 +4935,6 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>25.79</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>26.03</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>32.08</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>30.44</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" s="0" t="n">
         <v>27.27</v>
       </c>
     </row>
